--- a/Dataset/Folds/Fold_2/Excel/16.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/16.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2562" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2874" uniqueCount="401">
   <si>
     <t>Doi</t>
   </si>
@@ -1220,6 +1220,122 @@
   </si>
   <si>
     <t>[Tao%Guo%NULL%5,                          Yongzhen%Fan%NULL%1,                          Ming%Chen%NULL%1,                          Xiaoyan%Wu%NULL%1,                          Lin%Zhang%NULL%1,                          Tao%He%NULL%1,                          Hairong%Wang%NULL%1,                          Jing%Wan%NULL%1,                          Xinghuan%Wang%NULL%0,                          Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                           Zeljko%Kraljevic%NULL%1,                           Thomas%Searle%NULL%1,                           Rebecca%Bendayan%NULL%2,                           O'Gallagher%Kevin%NULL%1,                           Andrew%Pickles%NULL%1,                           Amos%Folarin%NULL%1,                           Lukasz%Roguski%NULL%1,                           Kawsar%Noor%NULL%1,                           Anthony%Shek%NULL%1,                           Rosita%Zakeri%NULL%1,                           Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                           James T.H.%Teo%jamesteo@nhs.net%2,                           Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                           Samrachana%Adhikari%NULL%1,                           Claudia%Pulgarin%NULL%1,                           Andrea B.%Troxel%NULL%1,                           Eduardo%Iturrate%NULL%1,                           Stephen B.%Johnson%NULL%1,                           Anaïs%Hausvater%NULL%1,                           Jonathan D.%Newman%NULL%1,                           Jeffrey S.%Berger%NULL%1,                           Sripal%Bangalore%NULL%1,                           Stuart D.%Katz%NULL%1,                           Glenn I.%Fishman%NULL%1,                           Dennis%Kunichoff%NULL%1,                           Yu%Chen%NULL%1,                           Gbenga%Ogedegbe%NULL%1,                           Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                           Federico%Rea%NULL%1,                           Monica%Ludergnani%NULL%2,                           Monica%Ludergnani%NULL%0,                           Giovanni%Apolone%NULL%1,                           Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                           Sapan S.%Desai%NULL%2,                           Sapan S.%Desai%NULL%0,                           SreyRam%Kuy%NULL%2,                           SreyRam%Kuy%NULL%0,                           Timothy D.%Henry%NULL%1,                           Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                           Lihua%Zhu%NULL%1,                           Jingjing%Cai%NULL%1,                           Fang%Lei%NULL%1,                           Juan-Juan%Qin%NULL%1,                           Jing%Xie%NULL%0,                           Ye-Mao%Liu%NULL%1,                           Yan-Ci%Zhao%NULL%1,                           Xuewei%Huang%NULL%1,                           Lijin%Lin%NULL%1,                           Meng%Xia%NULL%1,                           Ming-Ming%Chen%NULL%1,                           Xu%Cheng%NULL%1,                           Xiao%Zhang%NULL%1,                           Deliang%Guo%NULL%1,                           Yuanyuan%Peng%NULL%1,                           Yan-Xiao%Ji%NULL%1,                           Jing%Chen%NULL%0,                           Zhi-Gang%She%NULL%1,                           Yibin%Wang%NULL%1,                           Qingbo%Xu%NULL%1,                           Renfu%Tan%NULL%1,                           Haitao%Wang%NULL%1,                           Jun%Lin%NULL%1,                           Pengcheng%Luo%NULL%1,                           Shouzhi%Fu%NULL%2,                           Hongbin%Cai%NULL%1,                           Ping%Ye%NULL%1,                           Bing%Xiao%NULL%1,                           Weiming%Mao%NULL%1,                           Liming%Liu%NULL%1,                           Youqin%Yan%NULL%1,                           Mingyu%Liu%NULL%1,                           Manhua%Chen%NULL%1,                           Xiao-Jing%Zhang%NULL%1,                           Xinghuan%Wang%NULL%2,                           Rhian M.%Touyz%NULL%1,                           Jiahong%Xia%NULL%1,                           Bing-Hong%Zhang%NULL%1,                           Xiaodong%Huang%NULL%1,                           Yufeng%Yuan%NULL%1,                           Rohit%Loomba%NULL%1,                           Peter P.%Liu%NULL%1,                           Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                           Guohui%Xiao%NULL%1,                           Juanjuan%Zhang%NULL%1,                           Xing%He%NULL%1,                           Min%Ou%NULL%1,                           Jing%Bi%NULL%1,                           Rongqing%Yang%NULL%1,                           Wencheng%Di%NULL%1,                           Zhaoqin%Wang%NULL%2,                           Zigang%Li%NULL%1,                           Hong%Gao%NULL%0,                           Lei%Liu%NULL%0,                           Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                           Yuan%Sun%NULL%2,                           Yuan%Sun%NULL%0,                           Haolong%Zeng%NULL%2,                           Haolong%Zeng%NULL%0,                           Qingxing%Wang%NULL%1,                           Xiaming%Jiang%NULL%1,                           Wei-Juan%Shang%NULL%1,                           Yan%Wu%NULL%1,                           Shufen%Li%NULL%1,                           Yu-Lan%Zhang%NULL%1,                           Zhao-Nian%Hao%NULL%1,                           Hongbo%Chen%NULL%1,                           Runming%Jin%NULL%2,                           Runming%Jin%NULL%0,                           Wei%Liu%NULL%0,                           Hao%Li%lihao_1986@126.com%1,                           Ke%Peng%pengke@wh.iov.cn%1,                           Gengfu%Xiao%xiaogf@wh.iov.cn%2,                           Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                           Yongzhen%Fan%NULL%1,                           Ming%Chen%NULL%1,                           Xiaoyan%Wu%NULL%1,                           Lin%Zhang%NULL%1,                           Tao%He%NULL%1,                           Hairong%Wang%NULL%1,                           Jing%Wan%NULL%1,                           Xinghuan%Wang%NULL%0,                           Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0,                            Zeljko%Kraljevic%NULL%1,                            Thomas%Searle%NULL%1,                            Rebecca%Bendayan%NULL%2,                            O'Gallagher%Kevin%NULL%1,                            Andrew%Pickles%NULL%1,                            Amos%Folarin%NULL%1,                            Lukasz%Roguski%NULL%1,                            Kawsar%Noor%NULL%1,                            Anthony%Shek%NULL%1,                            Rosita%Zakeri%NULL%1,                            Ajay M.%Shah%ajay.shah@kcl.ac.uk%2,                            James T.H.%Teo%jamesteo@nhs.net%2,                            Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%2]</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0,                            Samrachana%Adhikari%NULL%1,                            Claudia%Pulgarin%NULL%1,                            Andrea B.%Troxel%NULL%1,                            Eduardo%Iturrate%NULL%1,                            Stephen B.%Johnson%NULL%1,                            Anaïs%Hausvater%NULL%1,                            Jonathan D.%Newman%NULL%1,                            Jeffrey S.%Berger%NULL%1,                            Sripal%Bangalore%NULL%1,                            Stuart D.%Katz%NULL%1,                            Glenn I.%Fishman%NULL%1,                            Dennis%Kunichoff%NULL%1,                            Yu%Chen%NULL%1,                            Gbenga%Ogedegbe%NULL%1,                            Judith S.%Hochman%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0,                            Federico%Rea%NULL%1,                            Monica%Ludergnani%NULL%2,                            Monica%Ludergnani%NULL%0,                            Giovanni%Apolone%NULL%1,                            Giovanni%Corrao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%1,                            Sapan S.%Desai%NULL%2,                            Sapan S.%Desai%NULL%0,                            SreyRam%Kuy%NULL%2,                            SreyRam%Kuy%NULL%0,                            Timothy D.%Henry%NULL%1,                            Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0,                            Lihua%Zhu%NULL%1,                            Jingjing%Cai%NULL%1,                            Fang%Lei%NULL%1,                            Juan-Juan%Qin%NULL%1,                            Jing%Xie%NULL%0,                            Ye-Mao%Liu%NULL%1,                            Yan-Ci%Zhao%NULL%1,                            Xuewei%Huang%NULL%1,                            Lijin%Lin%NULL%1,                            Meng%Xia%NULL%1,                            Ming-Ming%Chen%NULL%1,                            Xu%Cheng%NULL%1,                            Xiao%Zhang%NULL%1,                            Deliang%Guo%NULL%1,                            Yuanyuan%Peng%NULL%1,                            Yan-Xiao%Ji%NULL%1,                            Jing%Chen%NULL%0,                            Zhi-Gang%She%NULL%1,                            Yibin%Wang%NULL%1,                            Qingbo%Xu%NULL%1,                            Renfu%Tan%NULL%1,                            Haitao%Wang%NULL%1,                            Jun%Lin%NULL%1,                            Pengcheng%Luo%NULL%1,                            Shouzhi%Fu%NULL%2,                            Hongbin%Cai%NULL%1,                            Ping%Ye%NULL%1,                            Bing%Xiao%NULL%1,                            Weiming%Mao%NULL%1,                            Liming%Liu%NULL%1,                            Youqin%Yan%NULL%1,                            Mingyu%Liu%NULL%1,                            Manhua%Chen%NULL%1,                            Xiao-Jing%Zhang%NULL%1,                            Xinghuan%Wang%NULL%2,                            Rhian M.%Touyz%NULL%1,                            Jiahong%Xia%NULL%1,                            Bing-Hong%Zhang%NULL%1,                            Xiaodong%Huang%NULL%1,                            Yufeng%Yuan%NULL%1,                            Rohit%Loomba%NULL%1,                            Peter P.%Liu%NULL%1,                            Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0,                            Guohui%Xiao%NULL%1,                            Juanjuan%Zhang%NULL%1,                            Xing%He%NULL%1,                            Min%Ou%NULL%1,                            Jing%Bi%NULL%1,                            Rongqing%Yang%NULL%1,                            Wencheng%Di%NULL%1,                            Zhaoqin%Wang%NULL%2,                            Zigang%Li%NULL%1,                            Hong%Gao%NULL%0,                            Lei%Liu%NULL%0,                            Guoliang%Zhang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%1,                            Yuan%Sun%NULL%2,                            Yuan%Sun%NULL%0,                            Haolong%Zeng%NULL%2,                            Haolong%Zeng%NULL%0,                            Qingxing%Wang%NULL%1,                            Xiaming%Jiang%NULL%1,                            Wei-Juan%Shang%NULL%1,                            Yan%Wu%NULL%1,                            Shufen%Li%NULL%1,                            Yu-Lan%Zhang%NULL%1,                            Zhao-Nian%Hao%NULL%1,                            Hongbo%Chen%NULL%1,                            Runming%Jin%NULL%2,                            Runming%Jin%NULL%0,                            Wei%Liu%NULL%0,                            Hao%Li%lihao_1986@126.com%1,                            Ke%Peng%pengke@wh.iov.cn%1,                            Gengfu%Xiao%xiaogf@wh.iov.cn%2,                            Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%5,                            Yongzhen%Fan%NULL%1,                            Ming%Chen%NULL%1,                            Xiaoyan%Wu%NULL%1,                            Lin%Zhang%NULL%1,                            Tao%He%NULL%1,                            Hairong%Wang%NULL%1,                            Jing%Wan%NULL%1,                            Xinghuan%Wang%NULL%0,                            Zhibing%Lu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Daniel M.%Bean%NULL%0, Zeljko%Kraljevic%NULL%0, Thomas%Searle%NULL%0, Rebecca%Bendayan%NULL%0, O'Gallagher%Kevin%NULL%0, Andrew%Pickles%NULL%0, Amos%Folarin%NULL%0, Lukasz%Roguski%NULL%0, Kawsar%Noor%NULL%0, Anthony%Shek%NULL%0, Rosita%Zakeri%NULL%0, Ajay M.%Shah%ajay.shah@kcl.ac.uk%0, James T.H.%Teo%jamesteo@nhs.net%0, Richard J.B.%Dobson%richard.j.dobson@kcl.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>John Wiley &amp;amp; Sons, Ltd.</t>
+  </si>
+  <si>
+    <t>[Harmony R.%Reynolds%NULL%0, Samrachana%Adhikari%NULL%0, Claudia%Pulgarin%NULL%0, Andrea B.%Troxel%NULL%0, Eduardo%Iturrate%NULL%0, Stephen B.%Johnson%NULL%0, Anaïs%Hausvater%NULL%0, Jonathan D.%Newman%NULL%0, Jeffrey S.%Berger%NULL%0, Sripal%Bangalore%NULL%0, Stuart D.%Katz%NULL%0, Glenn I.%Fishman%NULL%0, Dennis%Kunichoff%NULL%0, Yu%Chen%NULL%0, Gbenga%Ogedegbe%NULL%0, Judith S.%Hochman%NULL%0]</t>
+  </si>
+  <si>
+    <t>Massachusetts Medical Society</t>
+  </si>
+  <si>
+    <t>[Giuseppe%Mancia%NULL%0, Federico%Rea%NULL%0, Monica%Ludergnani%NULL%0, Monica%Ludergnani%NULL%0, Giovanni%Apolone%NULL%0, Giovanni%Corrao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Mandeep R.%Mehra%NULL%0, Sapan S.%Desai%NULL%2, Sapan S.%Desai%NULL%0, SreyRam%Kuy%NULL%2, SreyRam%Kuy%NULL%0, Timothy D.%Henry%NULL%1, Amit N.%Patel%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplemental Digital Content is available in the text.
+</t>
+  </si>
+  <si>
+    <t>[Peng%Zhang%NULL%0, Lihua%Zhu%NULL%0, Jingjing%Cai%NULL%0, Fang%Lei%NULL%0, Juan-Juan%Qin%NULL%0, Jing%Xie%NULL%0, Ye-Mao%Liu%NULL%0, Yan-Ci%Zhao%NULL%0, Xuewei%Huang%NULL%0, Lijin%Lin%NULL%0, Meng%Xia%NULL%0, Ming-Ming%Chen%NULL%0, Xu%Cheng%NULL%0, Xiao%Zhang%NULL%0, Deliang%Guo%NULL%0, Yuanyuan%Peng%NULL%0, Yan-Xiao%Ji%NULL%0, Jing%Chen%NULL%0, Zhi-Gang%She%NULL%0, Yibin%Wang%NULL%0, Qingbo%Xu%NULL%0, Renfu%Tan%NULL%0, Haitao%Wang%NULL%0, Jun%Lin%NULL%0, Pengcheng%Luo%NULL%0, Shouzhi%Fu%NULL%0, Hongbin%Cai%NULL%0, Ping%Ye%NULL%0, Bing%Xiao%NULL%0, Weiming%Mao%NULL%0, Liming%Liu%NULL%0, Youqin%Yan%NULL%0, Mingyu%Liu%NULL%0, Manhua%Chen%NULL%0, Xiao-Jing%Zhang%NULL%0, Xinghuan%Wang%NULL%0, Rhian M.%Touyz%NULL%0, Jiahong%Xia%NULL%0, Bing-Hong%Zhang%NULL%0, Xiaodong%Huang%NULL%0, Yufeng%Yuan%NULL%0, Rohit%Loomba%NULL%0, Peter P.%Liu%NULL%0, Hongliang%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Lippincott Williams &amp;amp; Wilkins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The dysfunction of the renin-angiotensin system (RAS) has been observed in coronavirus infection disease (COVID-19) patients, but whether RAS inhibitors, such as angiotensin-converting enzyme inhibitors (ACEIs) and angiotensin II type 1 receptor blockers (ARBs), are associated with clinical outcomes remains unknown.
+ COVID-19 patients with hypertension were enrolled to evaluate the effect of RAS inhibitors.
+ We observed that patients receiving ACEI or ARB therapy had a lower rate of severe diseases and a trend toward a lower level of IL-6 in peripheral blood.
+ In addition, ACEI or ARB therapy increased CD3 and CD8 T cell counts in peripheral blood and decreased the peak viral load compared to other antihypertensive drugs.
+ This evidence supports the benefit of using ACEIs or ARBs to potentially contribute to the improvement of clinical outcomes of COVID-19 patients with hypertension.
+</t>
+  </si>
+  <si>
+    <t>[Juan%Meng%NULL%0, Guohui%Xiao%NULL%0, Juanjuan%Zhang%NULL%0, Xing%He%NULL%0, Min%Ou%NULL%0, Jing%Bi%NULL%0, Rongqing%Yang%NULL%0, Wencheng%Di%NULL%0, Zhaoqin%Wang%NULL%0, Zigang%Li%NULL%0, Hong%Gao%NULL%0, Lei%Liu%NULL%0, Guoliang%Zhang%NULL%0]</t>
+  </si>
+  <si>
+    <t>Taylor &amp;amp; Francis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id="Par1"&gt;The coronavirus disease (COVID-19) caused by the novel severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) has now spread to &amp;gt;200 countries posing a global public health concern.
+ Patients with comorbidity, such as hypertension suffer more severe infection with elevated mortality.
+ The development of effective antiviral drugs is in urgent need to treat COVID-19 patients.
+ Here, we report that calcium channel blockers (CCBs), a type of antihypertensive drug that is widely used in clinics, inhibited the post-entry replication events of SARS-CoV-2 in vitro, while no in vitro anti-SARS-CoV-2 effect was observed for the two other major types of antihypertensive drugs, namely, angiotensin-converting enzyme inhibitors and angiotensin II receptor blockers.
+ CCB combined with chloroquine showed a significantly enhanced anti-SARS-CoV-2 efficacy.
+ A retrospective clinical investigation on hospitalized COVID-19 patients with hypertension as the only comorbidity revealed that the CCB amlodipine besylate therapy was associated with a decreased case fatality rate.
+ The results from this study suggest that CCB administration to COVID-19 patients with hypertension as the comorbidity might improve the disease outcome.
+</t>
+  </si>
+  <si>
+    <t>[Lei-Ke%Zhang%NULL%0, Yuan%Sun%NULL%2, Yuan%Sun%NULL%0, Haolong%Zeng%NULL%2, Haolong%Zeng%NULL%0, Qingxing%Wang%NULL%1, Xiaming%Jiang%NULL%1, Wei-Juan%Shang%NULL%1, Yan%Wu%NULL%1, Shufen%Li%NULL%1, Yu-Lan%Zhang%NULL%1, Zhao-Nian%Hao%NULL%1, Hongbo%Chen%NULL%1, Runming%Jin%NULL%2, Runming%Jin%NULL%0, Wei%Liu%NULL%0, Hao%Li%lihao_1986@126.com%1, Ke%Peng%pengke@wh.iov.cn%1, Gengfu%Xiao%xiaogf@wh.iov.cn%2, Gengfu%Xiao%xiaogf@wh.iov.cn%0]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This case series study evaluates the association of underlying cardiovascular disease and myocardial injury on fatal outcomes in patients with coronavirus disease 2019 (COVID-19).
+</t>
+  </si>
+  <si>
+    <t>[Tao%Guo%NULL%0, Yongzhen%Fan%NULL%0, Ming%Chen%NULL%6, Xiaoyan%Wu%NULL%6, Lin%Zhang%NULL%0, Tao%He%NULL%6, Hairong%Wang%NULL%6, Jing%Wan%NULL%5, Xinghuan%Wang%NULL%0, Zhibing%Lu%NULL%0]</t>
+  </si>
+  <si>
+    <t>American Medical Association</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1690,7 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>383</v>
       </c>
       <c r="F2" t="s">
         <v>28</v>
@@ -1586,10 +1702,10 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>384</v>
       </c>
     </row>
     <row r="3">
@@ -1606,7 +1722,7 @@
         <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>385</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -1618,10 +1734,10 @@
         <v>35</v>
       </c>
       <c r="I3" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
@@ -1638,7 +1754,7 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -1650,10 +1766,10 @@
         <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
@@ -1670,7 +1786,7 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="F5" t="s">
         <v>43</v>
@@ -1682,10 +1798,10 @@
         <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6">
@@ -1696,25 +1812,25 @@
         <v>43931.0</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
         <v>77</v>
@@ -1728,28 +1844,28 @@
         <v>44013.0</v>
       </c>
       <c r="C7" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="I7" t="s">
         <v>77</v>
       </c>
       <c r="J7" t="s">
-        <v>299</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -1763,10 +1879,10 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>389</v>
       </c>
       <c r="E8" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="F8" t="s">
         <v>52</v>
@@ -1778,10 +1894,10 @@
         <v>53</v>
       </c>
       <c r="I8" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>391</v>
       </c>
     </row>
     <row r="9">
@@ -1795,10 +1911,10 @@
         <v>54</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>392</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="F9" t="s">
         <v>57</v>
@@ -1810,10 +1926,10 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>77</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10">
@@ -1827,10 +1943,10 @@
         <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>183</v>
+        <v>395</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="F10" t="s">
         <v>62</v>
@@ -1842,10 +1958,10 @@
         <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>273</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>397</v>
       </c>
     </row>
     <row r="11">
@@ -1856,25 +1972,25 @@
         <v>43879.0</v>
       </c>
       <c r="C11" t="s">
-        <v>286</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>205</v>
+        <v>23</v>
       </c>
       <c r="H11" t="s">
-        <v>289</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
         <v>77</v>
@@ -1888,28 +2004,28 @@
         <v>44013.0</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>211</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>304</v>
+        <v>35</v>
       </c>
       <c r="I12" t="s">
         <v>77</v>
       </c>
       <c r="J12" t="s">
-        <v>305</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1923,10 +2039,10 @@
         <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>65</v>
+        <v>398</v>
       </c>
       <c r="E13" t="s">
-        <v>366</v>
+        <v>399</v>
       </c>
       <c r="F13" t="s">
         <v>67</v>
@@ -1938,10 +2054,10 @@
         <v>68</v>
       </c>
       <c r="I13" t="s">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
